--- a/app/xlsfile/工作進度安排_HHL_2500303.xlsx
+++ b/app/xlsfile/工作進度安排_HHL_2500303.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\63882\gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63882\PycharmProjects\Gantt\app\xlsfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0A66A-F36C-4715-91AD-015DAC57455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13890C-AF8F-4FCA-8CEC-5B14FD5D77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51600" yWindow="-5280" windowWidth="25800" windowHeight="21000" firstSheet="17" activeTab="25" xr2:uid="{FAECEA9D-5571-49E1-9713-18D6F11A43C1}"/>
+    <workbookView xWindow="-51600" yWindow="-5280" windowWidth="51816" windowHeight="21000" xr2:uid="{FAECEA9D-5571-49E1-9713-18D6F11A43C1}"/>
   </bookViews>
   <sheets>
     <sheet name="和仁步道(含遊憩區)" sheetId="4" r:id="rId1"/>
@@ -1426,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1532,8 +1532,12 @@
       <c r="G2" s="4">
         <v>45728</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4">
+        <v>45962</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45991</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
@@ -11217,7 +11221,7 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/app/xlsfile/工作進度安排_HHL_2500303.xlsx
+++ b/app/xlsfile/工作進度安排_HHL_2500303.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63882\PycharmProjects\Gantt\app\xlsfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13890C-AF8F-4FCA-8CEC-5B14FD5D77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8BBA6-DBFC-447F-BE01-924CFD86FBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51600" yWindow="-5280" windowWidth="51816" windowHeight="21000" xr2:uid="{FAECEA9D-5571-49E1-9713-18D6F11A43C1}"/>
   </bookViews>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1518,7 +1518,8 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <f>COUNTA(D2:W2)/2</f>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
         <v>45699</v>
@@ -1549,6 +1550,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
+        <f t="shared" ref="C3:C32" si="0">COUNTA(D3:W3)/2</f>
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -1566,6 +1568,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D4" s="4">
@@ -1583,6 +1586,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1594,6 +1598,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1605,6 +1610,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1616,6 +1622,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1627,6 +1634,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -1644,6 +1652,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="4">
@@ -1661,6 +1670,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11" s="4">
@@ -1678,6 +1688,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -1695,6 +1706,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13" s="4">
@@ -1712,6 +1724,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="4"/>
@@ -1725,6 +1738,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="4"/>
@@ -1738,6 +1752,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="4"/>
@@ -1751,6 +1766,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="4"/>
@@ -1764,6 +1780,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="4"/>
@@ -1777,6 +1794,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="4"/>
@@ -1790,6 +1808,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="4"/>
@@ -1803,6 +1822,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D21" s="4">
@@ -1820,6 +1840,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1831,6 +1852,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1842,6 +1864,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="4"/>
@@ -1857,6 +1880,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="4"/>
@@ -1872,6 +1896,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1883,6 +1908,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1894,6 +1920,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1905,6 +1932,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1916,6 +1944,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1927,6 +1956,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D31" s="4">
@@ -1944,6 +1974,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" s="4">
@@ -7397,7 +7428,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
